--- a/data/sysml2/21/owl/ScenarioElement_Prop.xlsx
+++ b/data/sysml2/21/owl/ScenarioElement_Prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,13 +1269,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>associate169</t>
+          <t>associate177</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -1667,17 +1667,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Aid:ActionTransform</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>idleState</t>
-        </is>
-      </c>
+          <t>associate173</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>implementState</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1685,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FireFighting:ActionTransform</t>
+          <t>Aid:ActionTransform</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1711,7 +1707,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rescue:ActionTransform</t>
+          <t>FireFighting:ActionTransform</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1733,7 +1729,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tow:ActionTransform</t>
+          <t>Rescue:ActionTransform</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1755,11 +1751,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hasActionEffectOn</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+          <t>Tow:ActionTransform</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>idleState</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>implementState</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1769,7 +1773,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>hasFirefightingEffectOn</t>
+          <t>hasActionEffectOn</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hasPersonnalRescueEffectOn</t>
+          <t>hasFirefightingEffectOn</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1797,7 +1801,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>hasRoadCleaningEffectOn</t>
+          <t>hasPersonnalRescueEffectOn</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1811,7 +1815,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>hasRoadControlEffectOn</t>
+          <t>hasRoadCleaningEffectOn</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1825,7 +1829,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>hasRoadRepairEffectOn</t>
+          <t>hasRoadControlEffectOn</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1839,11 +1843,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>hasVehicleTowingEffectOn</t>
+          <t>hasRoadRepairEffectOn</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>hasVehicleTowingEffectOn</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
